--- a/Realtime Assignment 2.xlsx
+++ b/Realtime Assignment 2.xlsx
@@ -493,10 +493,10 @@
         <v>68</v>
       </c>
       <c r="B8" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D8" t="n">
         <v>7.0</v>
